--- a/ConcProjectData.xlsx
+++ b/ConcProjectData.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="23">
   <si>
     <t xml:space="preserve"> LockFree</t>
   </si>
@@ -48,6 +47,48 @@
   </si>
   <si>
     <t xml:space="preserve"> average duration(ms)</t>
+  </si>
+  <si>
+    <t>2.6 GHz Intel Core i5</t>
+  </si>
+  <si>
+    <t>8GB Ram</t>
+  </si>
+  <si>
+    <t>Threadspawn Test Driver</t>
+  </si>
+  <si>
+    <t>Available processors (cores): 4</t>
+  </si>
+  <si>
+    <t>Free memory (bytes): 125566512</t>
+  </si>
+  <si>
+    <t>Total memory available to JVM (bytes): 128974848</t>
+  </si>
+  <si>
+    <t>Running 3 trials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> throwing away max and min</t>
+  </si>
+  <si>
+    <t>Executor Test Driver</t>
+  </si>
+  <si>
+    <t>Free memory (bytes): 125566768</t>
+  </si>
+  <si>
+    <t>Intel i7-4790 16GB Ram</t>
+  </si>
+  <si>
+    <t>Available processors (cores): 8</t>
+  </si>
+  <si>
+    <t>Free memory (bytes): 251333128</t>
+  </si>
+  <si>
+    <t>Total memory available to JVM (bytes): 255328256</t>
   </si>
 </sst>
 </file>
@@ -398,6 +439,643 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429442856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429442856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429437608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Duration vs number of tasks with 64 thread maximum on 4 core Intel Core i50 @ 2.6GHz with 8 GB RAM</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pooling Lock-Free</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$91:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$261:$E$272</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC81-459D-9295-225BAAB37252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Spawning Lock-Free</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$91:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$229:$E$240</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1658</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC81-459D-9295-225BAAB37252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Spawning Lazy</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$217:$E$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1603</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC81-459D-9295-225BAAB37252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Pooling Lazy</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$249:$E$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1413</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EC81-459D-9295-225BAAB37252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="429437608"/>
+        <c:axId val="429442856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="429437608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of tasks performed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3185,6 +3863,1287 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4539-4391-96F8-9D8B7E2E1D08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="429437608"/>
+        <c:axId val="429442856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="429437608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of tasks performed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429442856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429442856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429437608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Duration vs number of tasks with 64 thread maximum on 8 core intel i7-6700 @ 2.6GHz with 16 GB RAM</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pooling Lock-Free</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$91:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$131:$E$142</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17AD-4C15-947B-98F602F00A19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Spawning Lock-Free</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$91:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$103:$E$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2271</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17AD-4C15-947B-98F602F00A19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Spawning Lazy</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$91:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-17AD-4C15-947B-98F602F00A19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Pooling Lazy</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$119:$E$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-17AD-4C15-947B-98F602F00A19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="429437608"/>
+        <c:axId val="429442856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="429437608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of tasks performed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429442856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429442856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429437608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Duration vs number of tasks with 64 thread maximum on 4 core Intel Core i50 @ 2.6GHz with 8 GB RAM</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pooling Lock-Free</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$91:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$197:$E$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1960</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C41A-4A76-9381-45293DB69A8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Spawning Lock-Free</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$91:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$164:$E$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C41A-4A76-9381-45293DB69A8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Spawning Lazy</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$152:$E$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C41A-4A76-9381-45293DB69A8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Pooling Lazy</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$185:$E$196</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C41A-4A76-9381-45293DB69A8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3647,6 +5606,102 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3913,10 +5968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S142"/>
+  <dimension ref="A1:E272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="R97" sqref="R97"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="R228" sqref="R228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4709,7 +6764,7 @@
         <v>1824.544277</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -4726,7 +6781,7 @@
         <v>1455.283823</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
@@ -4743,7 +6798,7 @@
         <v>1310.5409420000001</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8</v>
       </c>
@@ -4760,7 +6815,7 @@
         <v>1214.367266</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8</v>
       </c>
@@ -4777,7 +6832,7 @@
         <v>1122.663313</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -4794,7 +6849,7 @@
         <v>1162.6233480000001</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
@@ -4811,7 +6866,7 @@
         <v>1198.448279</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8</v>
       </c>
@@ -4828,7 +6883,7 @@
         <v>1232.4922750000001</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>8</v>
       </c>
@@ -4845,7 +6900,7 @@
         <v>4785.5410789999996</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>8</v>
       </c>
@@ -4862,7 +6917,7 @@
         <v>3109.4003210000001</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8</v>
       </c>
@@ -4879,7 +6934,7 @@
         <v>1917.1608220000001</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8</v>
       </c>
@@ -4896,7 +6951,7 @@
         <v>1471.4086380000001</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8</v>
       </c>
@@ -4913,7 +6968,7 @@
         <v>1278.3995600000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8</v>
       </c>
@@ -4929,12 +6984,8 @@
       <c r="E61">
         <v>1161.7301150000001</v>
       </c>
-      <c r="S61">
-        <f>2048 *2</f>
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8</v>
       </c>
@@ -4950,12 +7001,8 @@
       <c r="E62">
         <v>1130.2465110000001</v>
       </c>
-      <c r="S62">
-        <f>S61*2</f>
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8</v>
       </c>
@@ -4971,12 +7018,8 @@
       <c r="E63">
         <v>1193.4618170000001</v>
       </c>
-      <c r="S63">
-        <f t="shared" ref="S63:S65" si="0">S62*2</f>
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8</v>
       </c>
@@ -4992,12 +7035,8 @@
       <c r="E64">
         <v>1137.375783</v>
       </c>
-      <c r="S64">
-        <f t="shared" si="0"/>
-        <v>32768</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -5013,12 +7052,8 @@
       <c r="E65">
         <v>1229.4550449999999</v>
       </c>
-      <c r="S65">
-        <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -5035,7 +7070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>8</v>
       </c>
@@ -5052,7 +7087,7 @@
         <v>4286.4690780000001</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
@@ -5069,7 +7104,7 @@
         <v>2301.3443139999999</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8</v>
       </c>
@@ -5086,7 +7121,7 @@
         <v>1508.3448760000001</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
@@ -5103,7 +7138,7 @@
         <v>1088.9728970000001</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
@@ -5120,7 +7155,7 @@
         <v>1062.823801</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8</v>
       </c>
@@ -5137,7 +7172,7 @@
         <v>1069.720384</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8</v>
       </c>
@@ -5154,7 +7189,7 @@
         <v>1032.568837</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>8</v>
       </c>
@@ -5171,7 +7206,7 @@
         <v>1069.864581</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>8</v>
       </c>
@@ -5188,7 +7223,7 @@
         <v>1101.2407290000001</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>8</v>
       </c>
@@ -5205,7 +7240,7 @@
         <v>1100.3506560000001</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>8</v>
       </c>
@@ -5222,7 +7257,7 @@
         <v>3669.473708</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8</v>
       </c>
@@ -5239,7 +7274,7 @@
         <v>2280.6450869999999</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>8</v>
       </c>
@@ -6225,10 +8260,1852 @@
         <v>4192</v>
       </c>
     </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>4</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>64</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>4</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>64</v>
+      </c>
+      <c r="E153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>64</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>64</v>
+      </c>
+      <c r="E155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>4</v>
+      </c>
+      <c r="B156">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>64</v>
+      </c>
+      <c r="E156">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>4</v>
+      </c>
+      <c r="B157">
+        <v>32</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>64</v>
+      </c>
+      <c r="E157">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <v>128</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>64</v>
+      </c>
+      <c r="E158">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>256</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>64</v>
+      </c>
+      <c r="E159">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>4</v>
+      </c>
+      <c r="B160">
+        <v>512</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>64</v>
+      </c>
+      <c r="E160">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>4</v>
+      </c>
+      <c r="B161">
+        <v>1024</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>64</v>
+      </c>
+      <c r="E161">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>4</v>
+      </c>
+      <c r="B162">
+        <v>2048</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>64</v>
+      </c>
+      <c r="E162">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>4</v>
+      </c>
+      <c r="B163">
+        <v>4096</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>64</v>
+      </c>
+      <c r="E163">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>4</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>64</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>64</v>
+      </c>
+      <c r="E165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>64</v>
+      </c>
+      <c r="E166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>64</v>
+      </c>
+      <c r="E167">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <v>16</v>
+      </c>
+      <c r="C168" t="s">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>64</v>
+      </c>
+      <c r="E168">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169">
+        <v>32</v>
+      </c>
+      <c r="C169" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>64</v>
+      </c>
+      <c r="E169">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>4</v>
+      </c>
+      <c r="B170">
+        <v>128</v>
+      </c>
+      <c r="C170" t="s">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>64</v>
+      </c>
+      <c r="E170">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <v>256</v>
+      </c>
+      <c r="C171" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>64</v>
+      </c>
+      <c r="E171">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172">
+        <v>512</v>
+      </c>
+      <c r="C172" t="s">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>64</v>
+      </c>
+      <c r="E172">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <v>1024</v>
+      </c>
+      <c r="C173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>64</v>
+      </c>
+      <c r="E173">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <v>2048</v>
+      </c>
+      <c r="C174" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>64</v>
+      </c>
+      <c r="E174">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <v>4096</v>
+      </c>
+      <c r="C175" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>64</v>
+      </c>
+      <c r="E175">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>64</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>64</v>
+      </c>
+      <c r="E186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>64</v>
+      </c>
+      <c r="E187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>64</v>
+      </c>
+      <c r="E188">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>4</v>
+      </c>
+      <c r="B189">
+        <v>16</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>64</v>
+      </c>
+      <c r="E189">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>4</v>
+      </c>
+      <c r="B190">
+        <v>32</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>64</v>
+      </c>
+      <c r="E190">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191">
+        <v>128</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>64</v>
+      </c>
+      <c r="E191">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>4</v>
+      </c>
+      <c r="B192">
+        <v>256</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>64</v>
+      </c>
+      <c r="E192">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="B193">
+        <v>512</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>64</v>
+      </c>
+      <c r="E193">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>4</v>
+      </c>
+      <c r="B194">
+        <v>1024</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>64</v>
+      </c>
+      <c r="E194">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>4</v>
+      </c>
+      <c r="B195">
+        <v>2048</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>64</v>
+      </c>
+      <c r="E195">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>4</v>
+      </c>
+      <c r="B196">
+        <v>4096</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>64</v>
+      </c>
+      <c r="E196">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>64</v>
+      </c>
+      <c r="E197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198" t="s">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>64</v>
+      </c>
+      <c r="E198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>64</v>
+      </c>
+      <c r="E199">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>64</v>
+      </c>
+      <c r="E200">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201">
+        <v>16</v>
+      </c>
+      <c r="C201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>64</v>
+      </c>
+      <c r="E201">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202">
+        <v>32</v>
+      </c>
+      <c r="C202" t="s">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>64</v>
+      </c>
+      <c r="E202">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203">
+        <v>128</v>
+      </c>
+      <c r="C203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>64</v>
+      </c>
+      <c r="E203">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>256</v>
+      </c>
+      <c r="C204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>64</v>
+      </c>
+      <c r="E204">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <v>512</v>
+      </c>
+      <c r="C205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>64</v>
+      </c>
+      <c r="E205">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>1024</v>
+      </c>
+      <c r="C206" t="s">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>64</v>
+      </c>
+      <c r="E206">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207">
+        <v>2048</v>
+      </c>
+      <c r="C207" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>64</v>
+      </c>
+      <c r="E207">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208">
+        <v>4096</v>
+      </c>
+      <c r="C208" t="s">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>64</v>
+      </c>
+      <c r="E208">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>15</v>
+      </c>
+      <c r="B215" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>8</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>64</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>8</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>64</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>8</v>
+      </c>
+      <c r="B219">
+        <v>4</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>64</v>
+      </c>
+      <c r="E219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>8</v>
+      </c>
+      <c r="B220">
+        <v>8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>64</v>
+      </c>
+      <c r="E220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>8</v>
+      </c>
+      <c r="B221">
+        <v>16</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>64</v>
+      </c>
+      <c r="E221">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>8</v>
+      </c>
+      <c r="B222">
+        <v>32</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>64</v>
+      </c>
+      <c r="E222">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>8</v>
+      </c>
+      <c r="B223">
+        <v>128</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>64</v>
+      </c>
+      <c r="E223">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>8</v>
+      </c>
+      <c r="B224">
+        <v>256</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>64</v>
+      </c>
+      <c r="E224">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>8</v>
+      </c>
+      <c r="B225">
+        <v>512</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>64</v>
+      </c>
+      <c r="E225">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>8</v>
+      </c>
+      <c r="B226">
+        <v>1024</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>64</v>
+      </c>
+      <c r="E226">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>8</v>
+      </c>
+      <c r="B227">
+        <v>2048</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>64</v>
+      </c>
+      <c r="E227">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>8</v>
+      </c>
+      <c r="B228">
+        <v>4096</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>64</v>
+      </c>
+      <c r="E228">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>8</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>64</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>8</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230" t="s">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>64</v>
+      </c>
+      <c r="E230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>8</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231" t="s">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>64</v>
+      </c>
+      <c r="E231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>8</v>
+      </c>
+      <c r="B232">
+        <v>8</v>
+      </c>
+      <c r="C232" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>64</v>
+      </c>
+      <c r="E232">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>8</v>
+      </c>
+      <c r="B233">
+        <v>16</v>
+      </c>
+      <c r="C233" t="s">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>64</v>
+      </c>
+      <c r="E233">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>8</v>
+      </c>
+      <c r="B234">
+        <v>32</v>
+      </c>
+      <c r="C234" t="s">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>64</v>
+      </c>
+      <c r="E234">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>8</v>
+      </c>
+      <c r="B235">
+        <v>128</v>
+      </c>
+      <c r="C235" t="s">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>64</v>
+      </c>
+      <c r="E235">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>8</v>
+      </c>
+      <c r="B236">
+        <v>256</v>
+      </c>
+      <c r="C236" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>64</v>
+      </c>
+      <c r="E236">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>8</v>
+      </c>
+      <c r="B237">
+        <v>512</v>
+      </c>
+      <c r="C237" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>64</v>
+      </c>
+      <c r="E237">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>8</v>
+      </c>
+      <c r="B238">
+        <v>1024</v>
+      </c>
+      <c r="C238" t="s">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>64</v>
+      </c>
+      <c r="E238">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>8</v>
+      </c>
+      <c r="B239">
+        <v>2048</v>
+      </c>
+      <c r="C239" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>64</v>
+      </c>
+      <c r="E239">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>8</v>
+      </c>
+      <c r="B240">
+        <v>4096</v>
+      </c>
+      <c r="C240" t="s">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>64</v>
+      </c>
+      <c r="E240">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>4</v>
+      </c>
+      <c r="D248" t="s">
+        <v>3</v>
+      </c>
+      <c r="E248" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>8</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>64</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>8</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>64</v>
+      </c>
+      <c r="E250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>8</v>
+      </c>
+      <c r="B251">
+        <v>4</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>64</v>
+      </c>
+      <c r="E251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>8</v>
+      </c>
+      <c r="B252">
+        <v>8</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>64</v>
+      </c>
+      <c r="E252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>8</v>
+      </c>
+      <c r="B253">
+        <v>16</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>64</v>
+      </c>
+      <c r="E253">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>8</v>
+      </c>
+      <c r="B254">
+        <v>32</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>64</v>
+      </c>
+      <c r="E254">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>8</v>
+      </c>
+      <c r="B255">
+        <v>128</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>64</v>
+      </c>
+      <c r="E255">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>8</v>
+      </c>
+      <c r="B256">
+        <v>256</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>64</v>
+      </c>
+      <c r="E256">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>8</v>
+      </c>
+      <c r="B257">
+        <v>512</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>64</v>
+      </c>
+      <c r="E257">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>8</v>
+      </c>
+      <c r="B258">
+        <v>1024</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>64</v>
+      </c>
+      <c r="E258">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>8</v>
+      </c>
+      <c r="B259">
+        <v>2048</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>64</v>
+      </c>
+      <c r="E259">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>8</v>
+      </c>
+      <c r="B260">
+        <v>4096</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>64</v>
+      </c>
+      <c r="E260">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>8</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>64</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>8</v>
+      </c>
+      <c r="B262">
+        <v>2</v>
+      </c>
+      <c r="C262" t="s">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>64</v>
+      </c>
+      <c r="E262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>8</v>
+      </c>
+      <c r="B263">
+        <v>4</v>
+      </c>
+      <c r="C263" t="s">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>64</v>
+      </c>
+      <c r="E263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>8</v>
+      </c>
+      <c r="B264">
+        <v>8</v>
+      </c>
+      <c r="C264" t="s">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>64</v>
+      </c>
+      <c r="E264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>8</v>
+      </c>
+      <c r="B265">
+        <v>16</v>
+      </c>
+      <c r="C265" t="s">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>64</v>
+      </c>
+      <c r="E265">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>8</v>
+      </c>
+      <c r="B266">
+        <v>32</v>
+      </c>
+      <c r="C266" t="s">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>64</v>
+      </c>
+      <c r="E266">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>8</v>
+      </c>
+      <c r="B267">
+        <v>128</v>
+      </c>
+      <c r="C267" t="s">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>64</v>
+      </c>
+      <c r="E267">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>8</v>
+      </c>
+      <c r="B268">
+        <v>256</v>
+      </c>
+      <c r="C268" t="s">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>64</v>
+      </c>
+      <c r="E268">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>8</v>
+      </c>
+      <c r="B269">
+        <v>512</v>
+      </c>
+      <c r="C269" t="s">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>64</v>
+      </c>
+      <c r="E269">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>8</v>
+      </c>
+      <c r="B270">
+        <v>1024</v>
+      </c>
+      <c r="C270" t="s">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>64</v>
+      </c>
+      <c r="E270">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>8</v>
+      </c>
+      <c r="B271">
+        <v>2048</v>
+      </c>
+      <c r="C271" t="s">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>64</v>
+      </c>
+      <c r="E271">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>8</v>
+      </c>
+      <c r="B272">
+        <v>4096</v>
+      </c>
+      <c r="C272" t="s">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>64</v>
+      </c>
+      <c r="E272">
+        <v>2922</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A119:E142">
-    <sortCondition ref="C119:C142"/>
-    <sortCondition ref="B119:B142"/>
+  <sortState ref="A249:E272">
+    <sortCondition ref="C249:C272"/>
+    <sortCondition ref="B249:B272"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
